--- a/Database Outine1.1.xlsx
+++ b/Database Outine1.1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>UserID(PK)</t>
   </si>
@@ -136,9 +136,6 @@
     <t>lastName</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>Parent</t>
   </si>
   <si>
@@ -162,6 +159,27 @@
   </si>
   <si>
     <t>Deletion of cart (in case of cancelling of order will create cascade effect on  Sales and dispatch tables.</t>
+  </si>
+  <si>
+    <t>userStd</t>
+  </si>
+  <si>
+    <t>productStd</t>
+  </si>
+  <si>
+    <t>houseNum</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>pincode</t>
   </si>
 </sst>
 </file>
@@ -354,39 +372,39 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:O35"/>
+  <dimension ref="A9:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,10 +725,10 @@
   </cols>
   <sheetData>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="12"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K10" t="s">
@@ -721,11 +739,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E11" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="E11" s="12" t="s">
         <v>40</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -746,10 +767,10 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
@@ -758,8 +779,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
       <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
@@ -772,7 +793,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -780,292 +801,317 @@
         <v>36</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G17" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G19" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G20" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="E23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E24" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E25" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E26" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="E28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="15"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="19"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="E29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="23">
+        <v>1</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" s="15"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="19"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="E18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="E19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E20" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E22" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
+      <c r="B30" s="14"/>
+      <c r="E30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="19"/>
+    </row>
+    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="19"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="K32">
         <v>0</v>
       </c>
-      <c r="M23" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="N23" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="O23" s="19"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="E24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="18"/>
+      <c r="O32" s="19"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="E33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="9">
-        <v>1</v>
-      </c>
-      <c r="H24" s="9">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="17"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="21"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="E25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="13">
-        <v>1</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" t="s">
-        <v>26</v>
-      </c>
-      <c r="M25" s="17"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="21"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="E26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="21"/>
-    </row>
-    <row r="27" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="21"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1</v>
+      </c>
+      <c r="N33" s="18"/>
+      <c r="O33" s="19"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="E34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="23">
+        <v>1</v>
+      </c>
+      <c r="H34" s="23">
+        <v>1</v>
+      </c>
+      <c r="N34" s="18"/>
+      <c r="O34" s="19"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="19"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="19"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
         <v>32</v>
       </c>
-      <c r="N28" s="20"/>
-      <c r="O28" s="21"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="E29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="9">
-        <v>1</v>
-      </c>
-      <c r="H29" s="9">
-        <v>1</v>
-      </c>
-      <c r="N29" s="20"/>
-      <c r="O29" s="21"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="E30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="13">
-        <v>1</v>
-      </c>
-      <c r="H30" s="13">
-        <v>1</v>
-      </c>
-      <c r="N30" s="20"/>
-      <c r="O30" s="21"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="21"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="21"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G33" s="10" t="s">
+      <c r="N37" s="18"/>
+      <c r="O37" s="19"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="9"/>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33" t="s">
-        <v>32</v>
-      </c>
-      <c r="N33" s="20"/>
-      <c r="O33" s="21"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="E34" s="4" t="s">
+      <c r="B38" s="14"/>
+      <c r="E38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="13">
-        <v>1</v>
-      </c>
-      <c r="H34" s="13">
-        <v>1</v>
-      </c>
-      <c r="N34" s="20"/>
-      <c r="O34" s="21"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="E35" s="4" t="s">
+      <c r="G38" s="23">
+        <v>1</v>
+      </c>
+      <c r="H38" s="23">
+        <v>1</v>
+      </c>
+      <c r="N38" s="18"/>
+      <c r="O38" s="19"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="E39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N23:O35"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="N27:O39"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
     <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
